--- a/React.js Curriculum.xlsx
+++ b/React.js Curriculum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anil\training\react\react_curriculum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anil\training\react\react_curriculum_latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352FC96-F560-402D-A03B-12360D198720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843B057E-4C69-4C30-9A5C-1406F4F9F0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{654EB569-EDC2-4BB1-B840-3B6BF14D88E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="198">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -247,9 +247,6 @@
     <t>Configuration the router using the route component</t>
   </si>
   <si>
-    <t>Using switch component for defining routing rules</t>
-  </si>
-  <si>
     <t>Using route params for making routes dynamic</t>
   </si>
   <si>
@@ -587,6 +584,44 @@
   </si>
   <si>
     <t>use filter method</t>
+  </si>
+  <si>
+    <t>Axios</t>
+  </si>
+  <si>
+    <t>prepare birthday list</t>
+  </si>
+  <si>
+    <t>people list with image from fake api and clearall()</t>
+  </si>
+  <si>
+    <t>data.json</t>
+  </si>
+  <si>
+    <t>tour list</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data should be an array of objects, with each object representing a person's review and containing properties such as name, job, image URL, and text.</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>useNavigate, useLocation hooks</t>
+  </si>
+  <si>
+    <t>Ticketing system like</t>
+  </si>
+  <si>
+    <t>trello
+notion
+clickup</t>
+  </si>
+  <si>
+    <t>fetch API data using middleware</t>
   </si>
 </sst>
 </file>
@@ -727,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -746,11 +781,14 @@
     <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB51E14D-F238-47A7-819B-0424257A8063}">
-  <dimension ref="B1:F187"/>
+  <dimension ref="B1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,10 +1121,10 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
@@ -1124,7 +1162,7 @@
         <v>45678</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1166,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1254,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1265,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1280,7 +1318,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1290,7 +1328,7 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1307,7 +1345,7 @@
         <v>45679</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -1319,7 +1357,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1373,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1384,7 +1422,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
@@ -1395,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
@@ -1409,7 +1447,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1419,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
@@ -1430,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
@@ -1445,7 +1483,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2"/>
       <c r="F35" s="2"/>
@@ -1453,7 +1491,7 @@
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1470,7 +1508,7 @@
         <v>45680</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -1538,7 +1576,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1563,7 +1601,7 @@
         <v>45681</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -1616,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1627,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1638,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1649,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1660,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1671,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1711,7 +1749,7 @@
         <v>45684</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -1902,7 +1940,7 @@
         <v>45685</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2"/>
     </row>
@@ -1976,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -1987,7 +2025,7 @@
         <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -1998,7 +2036,7 @@
         <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2031,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2046,10 +2084,10 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2073,7 +2111,7 @@
         <v>45686</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F95" s="2"/>
     </row>
@@ -2133,49 +2171,49 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="B101" s="2">
+        <v>6</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4" t="s">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D103" s="11">
         <v>45687</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B104" s="2">
-        <v>1</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -2183,10 +2221,10 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -2194,10 +2232,10 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -2205,10 +2243,10 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -2216,10 +2254,10 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -2227,10 +2265,10 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B110" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -2238,34 +2276,36 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B111" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="B112" s="2">
+        <v>8</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B113" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C113" s="3"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="2"/>
@@ -2273,52 +2313,50 @@
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="3"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B117" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D116" s="11">
+      <c r="D117" s="11">
         <v>45688</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B117" s="2">
-        <v>1</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
+      <c r="E117" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B118" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B119" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>81</v>
@@ -2329,10 +2367,10 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B120" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -2340,86 +2378,86 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B121" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B122" s="2"/>
-      <c r="C122" s="13"/>
+      <c r="B122" s="2">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B123" s="2">
-        <v>6</v>
-      </c>
-      <c r="C123" t="s">
-        <v>166</v>
-      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="13"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="B124" s="2">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>165</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B125" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C125" s="3"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D127" s="11">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D128" s="11">
         <v>45691</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B128" s="2">
-        <v>1</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+      <c r="E128" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B129" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -2427,10 +2465,10 @@
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B130" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -2438,63 +2476,65 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B131" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B132" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C132" s="3"/>
+      <c r="B132" s="2">
+        <v>4</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B135" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D134" s="11">
+      <c r="D135" s="11">
         <v>45692</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B135" s="2">
-        <v>1</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="E135" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B136" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -2502,70 +2542,70 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B137" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="B138" s="2">
+        <v>3</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B139" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="B140" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B142" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D141" s="11">
+      <c r="D142" s="11">
         <v>45693</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B142" s="2">
-        <v>1</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+      <c r="E142" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="F142" s="3"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -2573,10 +2613,10 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B144" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -2584,10 +2624,10 @@
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B145" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -2595,10 +2635,10 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B146" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -2606,72 +2646,72 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B147" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="B148" s="2">
+        <v>6</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B149" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="B150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B152" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D151" s="11">
+      <c r="D152" s="11">
         <v>42041</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B152" s="2">
-        <v>1</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
+      <c r="E152" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B153" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -2679,82 +2719,82 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B154" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B155" s="2"/>
-      <c r="C155" s="3" t="s">
-        <v>148</v>
+      <c r="B155" s="2">
+        <v>3</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B156" s="3"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B157" s="4"/>
-      <c r="C157" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D157" s="11">
+      <c r="B157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B158" s="4"/>
+      <c r="C158" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D158" s="11">
         <v>42041</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B158" s="12">
-        <v>1</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+      <c r="E158" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F158" s="3"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B159" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B160" s="3">
-        <v>3</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>110</v>
+      <c r="B160" s="12">
+        <v>2</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B161" s="12">
-        <v>4</v>
+      <c r="B161" s="3">
+        <v>3</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -2762,18 +2802,22 @@
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B162" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
+      <c r="B163" s="12">
+        <v>5</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -2786,9 +2830,7 @@
       <c r="F164" s="3"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B165" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -2796,7 +2838,7 @@
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B166" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -2805,7 +2847,7 @@
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -2814,7 +2856,7 @@
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B168" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -2823,7 +2865,7 @@
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B169" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -2832,7 +2874,7 @@
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B170" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -2841,7 +2883,7 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -2850,7 +2892,7 @@
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B172" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -2859,7 +2901,7 @@
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B173" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -2868,7 +2910,7 @@
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B174" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -2876,68 +2918,114 @@
       <c r="F174" s="3"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C175" t="s">
+      <c r="B175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C176" t="s">
+        <v>195</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C178" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C179" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C176" t="s">
+    <row r="180" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C180" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C177" t="s">
+    <row r="181" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C181" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C178" t="s">
+    <row r="182" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C182" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C179" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C180" t="s">
+    <row r="183" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C183" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C184" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C181" t="s">
+    <row r="185" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C185" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C182" t="s">
+    <row r="186" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C186" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C183" t="s">
+    <row r="187" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C187" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C184" t="s">
+    <row r="188" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C188" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C185" t="s">
+    <row r="189" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C189" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C186" t="s">
+    <row r="190" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C190" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C187" t="s">
-        <v>162</v>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C191" t="s">
+        <v>187</v>
+      </c>
+      <c r="D191" t="s">
+        <v>188</v>
+      </c>
+      <c r="H191" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C193" t="s">
+        <v>191</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C194" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2962,27 +3050,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2991,26 +3079,26 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" t="s">
         <v>182</v>
-      </c>
-      <c r="B12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/React.js Curriculum.xlsx
+++ b/React.js Curriculum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anil\training\react\react_curriculum_latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843B057E-4C69-4C30-9A5C-1406F4F9F0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2B39EA-688C-419C-B684-77739CDAF3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{654EB569-EDC2-4BB1-B840-3B6BF14D88E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{654EB569-EDC2-4BB1-B840-3B6BF14D88E8}"/>
   </bookViews>
   <sheets>
     <sheet name="React.js Curriculum" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="218">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -622,6 +622,66 @@
   </si>
   <si>
     <t>fetch API data using middleware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4) </t>
+  </si>
+  <si>
+    <t>const users = [{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name: "John",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hobbies: ["singing", "walking", "playing guitar"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name: "Terry",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hobbies: ["swimming", "playing guitar"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name: "Anna",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hobbies: ["walking", "swimming", "playing guitar"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name: "Paul",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hobbies: ["swimming", "singing"]</t>
+  </si>
+  <si>
+    <t>];</t>
+  </si>
+  <si>
+    <t>// users.map(user () =&gt; user.hobbies.map.(hobby) ()=&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{   playing guitar: ["John", "Terry", "Anna"],   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">singing: ["John", "Paul"],  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swimming: ["Terry", "Anna", "Paul"],  </t>
+  </si>
+  <si>
+    <t>walking: ["John", "Anna"] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5) </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB51E14D-F238-47A7-819B-0424257A8063}">
   <dimension ref="B1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+    <sheetView topLeftCell="A120" workbookViewId="0">
       <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
@@ -3040,10 +3100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BFAEFC-F782-4C0E-8D94-36458D0FC464}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3096,9 +3156,134 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/React.js Curriculum.xlsx
+++ b/React.js Curriculum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anil\training\react\react_curriculum_latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2B39EA-688C-419C-B684-77739CDAF3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD22231-C084-48A8-A581-B4A523DB2A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{654EB569-EDC2-4BB1-B840-3B6BF14D88E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{654EB569-EDC2-4BB1-B840-3B6BF14D88E8}"/>
   </bookViews>
   <sheets>
     <sheet name="React.js Curriculum" sheetId="1" r:id="rId1"/>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB51E14D-F238-47A7-819B-0424257A8063}">
   <dimension ref="B1:H194"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3102,7 +3102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BFAEFC-F782-4C0E-8D94-36458D0FC464}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>

--- a/React.js Curriculum.xlsx
+++ b/React.js Curriculum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anil\training\react\react_curriculum_latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD22231-C084-48A8-A581-B4A523DB2A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B36F17-733C-4165-A2A8-681BF487100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{654EB569-EDC2-4BB1-B840-3B6BF14D88E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{654EB569-EDC2-4BB1-B840-3B6BF14D88E8}"/>
   </bookViews>
   <sheets>
     <sheet name="React.js Curriculum" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="221">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -682,6 +682,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii</t>
+  </si>
+  <si>
+    <t>CI/CD pipeline</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>find second highest number from given array</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB51E14D-F238-47A7-819B-0424257A8063}">
-  <dimension ref="B1:H194"/>
+  <dimension ref="B1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2727,62 +2736,62 @@
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="B149" s="2">
+        <v>7</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B150" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
+      <c r="B151" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B153" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D153" s="11">
         <v>42041</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B153" s="2">
-        <v>1</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -2790,82 +2799,82 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B155" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B156" s="2"/>
-      <c r="C156" s="3" t="s">
-        <v>147</v>
+      <c r="B156" s="2">
+        <v>3</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B157" s="3"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B158" s="4"/>
-      <c r="C158" s="4" t="s">
+      <c r="B158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B159" s="4"/>
+      <c r="C159" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D159" s="11">
         <v>42041</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B159" s="12">
-        <v>1</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B160" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B161" s="3">
-        <v>3</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>109</v>
+      <c r="B161" s="12">
+        <v>2</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B162" s="12">
-        <v>4</v>
+      <c r="B162" s="3">
+        <v>3</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -2873,18 +2882,22 @@
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B163" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
+      <c r="B164" s="12">
+        <v>5</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -2897,9 +2910,7 @@
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B166" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -2907,7 +2918,7 @@
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -2916,7 +2927,7 @@
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B168" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -2925,7 +2936,7 @@
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B169" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -2934,7 +2945,7 @@
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B170" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -2943,7 +2954,7 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -2952,7 +2963,7 @@
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B172" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -2961,7 +2972,7 @@
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B173" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -2970,7 +2981,7 @@
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B174" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -2979,112 +2990,121 @@
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B175" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C176" t="s">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="3:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C177" t="s">
         <v>195</v>
       </c>
-      <c r="D176" s="15" t="s">
+      <c r="D177" s="15" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="178" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C178" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="179" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="183" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="185" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="187" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="188" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="189" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
-        <v>187</v>
-      </c>
-      <c r="D191" t="s">
-        <v>188</v>
-      </c>
-      <c r="H191" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
+        <v>187</v>
+      </c>
+      <c r="D192" t="s">
+        <v>188</v>
+      </c>
+      <c r="H192" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C193" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="3:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C193" t="s">
+    <row r="194" spans="3:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C194" t="s">
         <v>191</v>
       </c>
-      <c r="D193" s="15" t="s">
+      <c r="D194" s="15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C194" t="s">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C195" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3100,10 +3120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BFAEFC-F782-4C0E-8D94-36458D0FC464}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3286,6 +3306,14 @@
         <v>217</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/React.js Curriculum.xlsx
+++ b/React.js Curriculum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anil\training\react\react_curriculum_latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B36F17-733C-4165-A2A8-681BF487100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161B1F7-D3D6-48BE-8456-6C3AF6C7A829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{654EB569-EDC2-4BB1-B840-3B6BF14D88E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{654EB569-EDC2-4BB1-B840-3B6BF14D88E8}"/>
   </bookViews>
   <sheets>
     <sheet name="React.js Curriculum" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -691,13 +691,25 @@
   </si>
   <si>
     <t>find second highest number from given array</t>
+  </si>
+  <si>
+    <t>Case Managament</t>
+  </si>
+  <si>
+    <t>Order fullfillment Application</t>
+  </si>
+  <si>
+    <t>Leave Management Application,</t>
+  </si>
+  <si>
+    <t>Restaurant management System, Sales forecasting, Customer Support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +753,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -831,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -858,6 +876,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB51E14D-F238-47A7-819B-0424257A8063}">
-  <dimension ref="B1:H195"/>
+  <dimension ref="B1:H199"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3106,6 +3125,26 @@
     <row r="195" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C195" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C196" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C197" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C198" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C199" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3122,7 +3161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BFAEFC-F782-4C0E-8D94-36458D0FC464}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
